--- a/tut05/output/0501CS21.xlsx
+++ b/tut05/output/0501CS21.xlsx
@@ -550,25 +550,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.448979591836734</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C6" t="n">
-        <v>8.704545454545455</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.976744186046512</v>
+        <v>8.98</v>
       </c>
       <c r="E6" t="n">
-        <v>9.085106382978724</v>
+        <v>9.09</v>
       </c>
       <c r="F6" t="n">
-        <v>9.428571428571429</v>
+        <v>9.43</v>
       </c>
       <c r="G6" t="n">
-        <v>9.574999999999999</v>
+        <v>9.57</v>
       </c>
       <c r="H6" t="n">
-        <v>9.682926829268293</v>
+        <v>9.68</v>
       </c>
       <c r="I6" t="n">
         <v>10</v>
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8.448979591836734</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C8" t="n">
-        <v>8.56989247311828</v>
+        <v>8.57</v>
       </c>
       <c r="D8" t="n">
-        <v>8.698529411764707</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.797814207650273</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F8" t="n">
-        <v>8.915555555555555</v>
+        <v>8.92</v>
       </c>
       <c r="G8" t="n">
-        <v>9.015094339622642</v>
+        <v>9.02</v>
       </c>
       <c r="H8" t="n">
-        <v>9.104575163398692</v>
+        <v>9.1</v>
       </c>
       <c r="I8" t="n">
-        <v>9.208092485549132</v>
+        <v>9.210000000000001</v>
       </c>
     </row>
   </sheetData>
